--- a/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -1,156 +1,200 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vidhya\source\repos\MarsFramework\MarsFramework\MarsFramework\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\QA-Competition\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9272ECE-833C-43AE-9AC5-5DC008F12B22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F1CBA2-4700-45E0-9BC3-4C7008BD43E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="18720" windowHeight="11949" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
     <sheet name="SignIn" sheetId="1" r:id="rId2"/>
     <sheet name="ShareSkill" sheetId="2" r:id="rId3"/>
+    <sheet name="EditShareSkill" sheetId="5" r:id="rId4"/>
+    <sheet name="ManageListings" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>ConfirmPswd</t>
+  </si>
+  <si>
+    <t>Venugan</t>
+  </si>
+  <si>
+    <t>Vidhya</t>
+  </si>
+  <si>
+    <t>vidhyav9@gmail.com</t>
+  </si>
+  <si>
+    <t>Ithika2015</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Would like to provide selenium training for beginners</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Programming &amp; Tech</t>
+  </si>
+  <si>
+    <t>ServiceType</t>
+  </si>
+  <si>
+    <t>Enddate</t>
+  </si>
+  <si>
+    <t>Starttime</t>
+  </si>
+  <si>
+    <t>Endtime</t>
+  </si>
+  <si>
+    <t>Performance Testing</t>
+  </si>
+  <si>
+    <t>Selectday</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amandaliunz@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amanda2021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>Url</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>http://www.skillswap.pro/Home</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>ConfirmPswd</t>
-  </si>
-  <si>
-    <t>Venugan</t>
-  </si>
-  <si>
-    <t>Vidhya</t>
-  </si>
-  <si>
-    <t>vidhyav9@gmail.com</t>
-  </si>
-  <si>
-    <t>Ithika2015</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Tags</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocationType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>On-site</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Startdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTrade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill-Exchange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deleteaction</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Online</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Credit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Active</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Selenium</t>
-  </si>
-  <si>
-    <t>Would like to provide selenium training for beginners</t>
-  </si>
-  <si>
-    <t>Skill-Exchange</t>
-  </si>
-  <si>
-    <t>SubCategory</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
-    <t>Programming &amp; Tech</t>
-  </si>
-  <si>
-    <t>One-off service</t>
-  </si>
-  <si>
-    <t>ServiceType</t>
-  </si>
-  <si>
-    <t>LocationType</t>
-  </si>
-  <si>
-    <t>Startdate</t>
-  </si>
-  <si>
-    <t>Enddate</t>
-  </si>
-  <si>
-    <t>Starttime</t>
-  </si>
-  <si>
-    <t>Endtime</t>
-  </si>
-  <si>
-    <t>SkillTrade</t>
-  </si>
-  <si>
-    <t>On-site</t>
-  </si>
-  <si>
-    <t>Performance Testing</t>
-  </si>
-  <si>
-    <t>Hidden</t>
-  </si>
-  <si>
-    <t>Selectday</t>
-  </si>
-  <si>
-    <t>Mon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hourly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>One-off</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="hh:mm:ss;@"/>
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="h:mm;@"/>
+    <numFmt numFmtId="178" formatCode="hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -160,6 +204,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -192,17 +243,19 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -218,7 +271,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -544,50 +597,51 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.84375" customWidth="1"/>
+    <col min="2" max="2" width="22.69140625" customWidth="1"/>
+    <col min="3" max="3" width="27.84375" customWidth="1"/>
+    <col min="4" max="4" width="18.53515625" customWidth="1"/>
+    <col min="5" max="5" width="27.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
@@ -599,47 +653,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="45.84375" customWidth="1"/>
+    <col min="2" max="2" width="27.53515625" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="C2" r:id="rId3" display="Test@123" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -647,104 +700,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="1" max="4" width="20.15234375" customWidth="1"/>
+    <col min="5" max="5" width="18.3046875" customWidth="1"/>
+    <col min="6" max="6" width="24.84375" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="8" max="12" width="12.69140625" customWidth="1"/>
+    <col min="13" max="13" width="14.3828125" customWidth="1"/>
+    <col min="14" max="14" width="19.53515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.3828125" customWidth="1"/>
+    <col min="16" max="16" width="10.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
       </c>
       <c r="H2" s="4">
-        <v>43567</v>
-      </c>
-      <c r="I2" s="3">
-        <v>43597</v>
+        <v>44489</v>
+      </c>
+      <c r="I2" s="4">
+        <v>44520</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K2" s="5">
         <v>0.75</v>
@@ -753,19 +806,194 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2E7687-14CE-429F-BE3F-18E554914A9A}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="20.15234375" customWidth="1"/>
+    <col min="5" max="5" width="18.3046875" customWidth="1"/>
+    <col min="6" max="6" width="24.84375" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="12" width="12.69140625" customWidth="1"/>
+    <col min="13" max="13" width="14.3828125" customWidth="1"/>
+    <col min="14" max="14" width="19.53515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.3828125" customWidth="1"/>
+    <col min="16" max="16" width="10.69140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8BEB0E-D372-4C5B-ADE8-3EEDB4D6E197}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="20.15234375" customWidth="1"/>
+    <col min="5" max="5" width="18.3046875" customWidth="1"/>
+    <col min="6" max="6" width="24.84375" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="12" width="12.69140625" customWidth="1"/>
+    <col min="13" max="13" width="14.3828125" customWidth="1"/>
+    <col min="14" max="14" width="19.53515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.3828125" customWidth="1"/>
+    <col min="16" max="16" width="10.69140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
